--- a/Functional_Registration_MerkulovAA.xlsx
+++ b/Functional_Registration_MerkulovAA.xlsx
@@ -160,9 +160,6 @@
     <t>Тест не прошел, необходимо добавить ссылку на баг-репорт (в данном случае используется ссылка на документ в githube'e, но на проекте нужна ссылка на баг в баг-трекинговой системе ))</t>
   </si>
   <si>
-    <t>1. Регистрация (требования)</t>
-  </si>
-  <si>
     <t>1.2.4</t>
   </si>
   <si>
@@ -368,13 +365,16 @@
   </si>
   <si>
     <t>ID 1009</t>
+  </si>
+  <si>
+    <t>1. Регистрация</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +467,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -593,8 +599,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -638,10 +648,11 @@
     <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -850,7 +861,7 @@
   <dimension ref="A1:H1033"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -886,7 +897,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -899,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -914,7 +925,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>26</v>
@@ -938,7 +949,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
@@ -952,8 +963,8 @@
       <c r="E5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>97</v>
+      <c r="F5" s="31" t="s">
+        <v>96</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>33</v>
@@ -967,7 +978,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -1015,7 +1026,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -1027,12 +1038,12 @@
         <v>3</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>18</v>
@@ -1047,12 +1058,12 @@
         <v>3</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>17</v>
@@ -1070,7 +1081,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>16</v>
@@ -1085,12 +1096,12 @@
         <v>3</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>23</v>
@@ -1108,7 +1119,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>15</v>
@@ -1123,12 +1134,12 @@
         <v>3</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
@@ -1146,7 +1157,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>11</v>
@@ -1164,7 +1175,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -1182,7 +1193,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
@@ -1200,7 +1211,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
@@ -1218,7 +1229,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>22</v>
@@ -1236,7 +1247,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
@@ -1254,7 +1265,7 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>9</v>
@@ -1272,7 +1283,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>10</v>
@@ -1290,7 +1301,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>20</v>
@@ -1308,10 +1319,10 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -1320,7 +1331,7 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>24</v>
@@ -1338,7 +1349,7 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>25</v>
@@ -1353,15 +1364,15 @@
         <v>3</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2</v>
@@ -1376,10 +1387,10 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2</v>
@@ -1394,10 +1405,10 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2</v>
@@ -1412,10 +1423,10 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2</v>
@@ -1429,10 +1440,10 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -1447,10 +1458,10 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -1462,15 +1473,15 @@
         <v>3</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>62</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>63</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -1479,10 +1490,10 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="21" t="s">
         <v>64</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>65</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2</v>
@@ -1497,10 +1508,10 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2</v>
@@ -1515,10 +1526,10 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2</v>
@@ -1532,10 +1543,10 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>33</v>
@@ -1546,16 +1557,16 @@
       <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="21" t="s">
-        <v>97</v>
+      <c r="F38" s="31" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>33</v>
@@ -1566,16 +1577,16 @@
       <c r="E39" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="21" t="s">
-        <v>97</v>
+      <c r="F39" s="31" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>94</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>33</v>
@@ -1586,16 +1597,16 @@
       <c r="E40" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="21" t="s">
-        <v>97</v>
+      <c r="F40" s="31" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -1604,10 +1615,10 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
@@ -1621,10 +1632,10 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
@@ -1635,16 +1646,16 @@
       <c r="E43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="21" t="s">
-        <v>104</v>
+      <c r="F43" s="31" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -1655,16 +1666,16 @@
       <c r="E44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>105</v>
+      <c r="F44" s="31" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2</v>
@@ -4555,8 +4566,22 @@
       <c r="B1033" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId2"/>
+    <hyperlink ref="F10" r:id="rId3"/>
+    <hyperlink ref="F12" r:id="rId4"/>
+    <hyperlink ref="F14" r:id="rId5"/>
+    <hyperlink ref="F27" r:id="rId6"/>
+    <hyperlink ref="F33" r:id="rId7"/>
+    <hyperlink ref="F43" r:id="rId8"/>
+    <hyperlink ref="F44" r:id="rId9"/>
+    <hyperlink ref="F38" r:id="rId10"/>
+    <hyperlink ref="F39" r:id="rId11"/>
+    <hyperlink ref="F40" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
 </worksheet>
 </file>